--- a/Задание 3/Чек-лист_Тестирование_https___www.yakaboo.ua_.xlsx
+++ b/Задание 3/Чек-лист_Тестирование_https___www.yakaboo.ua_.xlsx
@@ -64,7 +64,7 @@
     <t>Отправить отзыв.</t>
   </si>
   <si>
-    <t>Оценка 4 звезды. Текст отзыва "Тестовая проверка отправки отзыва."</t>
+    <t>Оценка 4 звезды. Текст отзыва "Тестовая проверка отправки отзыва".</t>
   </si>
   <si>
     <t>Проверитть подписку на отзывы.</t>
